--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bead1d9252beea6e/Desktop/restaurant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5425CA62-8525-410C-BF58-AC118E7F8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{5425CA62-8525-410C-BF58-AC118E7F8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78A2D001-DDF0-434F-8128-C8D2A9AB8802}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94B14EE-90B1-4BFA-A8F6-382603C3EF04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>11-7-2023</t>
+  </si>
+  <si>
+    <t>11-14-2023</t>
+  </si>
+  <si>
+    <t>Created template of Home page</t>
+  </si>
+  <si>
+    <t>Created template of About us page</t>
+  </si>
+  <si>
+    <t>Created template of Menu page</t>
+  </si>
+  <si>
+    <t>Created template of Contact page</t>
   </si>
 </sst>
 </file>
@@ -438,9 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEC7F2B-7E61-4156-BE43-EE6458CBFC96}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -504,6 +521,54 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bead1d9252beea6e/Desktop/restaurant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{5425CA62-8525-410C-BF58-AC118E7F8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78A2D001-DDF0-434F-8128-C8D2A9AB8802}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{5425CA62-8525-410C-BF58-AC118E7F8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90528D6-6C7D-4F3B-9B30-2CAC900FD51E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94B14EE-90B1-4BFA-A8F6-382603C3EF04}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +92,21 @@
   </si>
   <si>
     <t>Created template of Contact page</t>
+  </si>
+  <si>
+    <t>11-21-2023</t>
+  </si>
+  <si>
+    <t>Created header, navigation, footer and few features in Home page</t>
+  </si>
+  <si>
+    <t>Created header, navigation, footer and few features in About us page</t>
+  </si>
+  <si>
+    <t>Created header, navigation, footer and few features in Menu page</t>
+  </si>
+  <si>
+    <t>Created header, navigation, footer and few features in Contact page</t>
   </si>
 </sst>
 </file>
@@ -154,6 +170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEC7F2B-7E61-4156-BE43-EE6458CBFC96}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,6 +589,50 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bead1d9252beea6e/Desktop/restaurant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{5425CA62-8525-410C-BF58-AC118E7F8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90528D6-6C7D-4F3B-9B30-2CAC900FD51E}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{5425CA62-8525-410C-BF58-AC118E7F8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9660B36B-A130-4BA7-B1A1-DD35A2356C4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94B14EE-90B1-4BFA-A8F6-382603C3EF04}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -107,6 +106,18 @@
   </si>
   <si>
     <t>Created header, navigation, footer and few features in Contact page</t>
+  </si>
+  <si>
+    <t>added styling to the Home page</t>
+  </si>
+  <si>
+    <t>added styling to the About us page</t>
+  </si>
+  <si>
+    <t>added styling to the Menu page</t>
+  </si>
+  <si>
+    <t>added styling to the Contact page</t>
   </si>
 </sst>
 </file>
@@ -473,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEC7F2B-7E61-4156-BE43-EE6458CBFC96}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,6 +644,50 @@
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bead1d9252beea6e/Desktop/restaurant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{5425CA62-8525-410C-BF58-AC118E7F8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9660B36B-A130-4BA7-B1A1-DD35A2356C4D}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{5425CA62-8525-410C-BF58-AC118E7F8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A177BA30-C37A-4AF5-BB44-08F663FD8660}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94B14EE-90B1-4BFA-A8F6-382603C3EF04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -118,6 +118,51 @@
   </si>
   <si>
     <t>added styling to the Contact page</t>
+  </si>
+  <si>
+    <t>created sendmessage page and styling</t>
+  </si>
+  <si>
+    <t>created book a table page and styling</t>
+  </si>
+  <si>
+    <t>created confirmation page and styling</t>
+  </si>
+  <si>
+    <t>created common css file</t>
+  </si>
+  <si>
+    <t>11-25-2023</t>
+  </si>
+  <si>
+    <t>created documentation and finalising the home page</t>
+  </si>
+  <si>
+    <t>created documentation and finalising the About us page</t>
+  </si>
+  <si>
+    <t>created documentation and finalising the Menu page</t>
+  </si>
+  <si>
+    <t>created documentation and finalising the Contact us page</t>
+  </si>
+  <si>
+    <t>12-03-2023</t>
+  </si>
+  <si>
+    <t>12-01-2023</t>
+  </si>
+  <si>
+    <t>updated styling and responsivenss to the Home page</t>
+  </si>
+  <si>
+    <t>updated styling and responsivenss to the About us page</t>
+  </si>
+  <si>
+    <t>updated styling and responsivenss to the Menu page</t>
+  </si>
+  <si>
+    <t>updated styling and responsivenss to the Contact page</t>
   </si>
 </sst>
 </file>
@@ -484,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEC7F2B-7E61-4156-BE43-EE6458CBFC96}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,6 +733,138 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
